--- a/xlsx/諺文_intext.xlsx
+++ b/xlsx/諺文_intext.xlsx
@@ -29,7 +29,7 @@
     <t>韩文 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_諺文</t>
+    <t>体育运动_体育运动_宦官_諺文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9F%B3%E7%B4%A0%E6%96%87%E5%AD%97</t>
